--- a/datasets/sa_hip3.xlsx
+++ b/datasets/sa_hip3.xlsx
@@ -9577,7 +9577,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -12940,7 +12940,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Of</t>
         </is>
       </c>
     </row>
@@ -14592,7 +14592,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -19312,7 +19312,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -25625,7 +25625,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -26156,7 +26156,7 @@
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>For</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -27631,7 +27631,7 @@
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -35773,7 +35773,7 @@
       </c>
       <c r="M599" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -38369,7 +38369,7 @@
       </c>
       <c r="M643" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -45626,7 +45626,7 @@
       </c>
       <c r="M766" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -47337,7 +47337,7 @@
       </c>
       <c r="M795" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -51644,7 +51644,7 @@
       </c>
       <c r="M868" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -52234,7 +52234,7 @@
       </c>
       <c r="M878" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -52647,7 +52647,7 @@
       </c>
       <c r="M885" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -52883,7 +52883,7 @@
       </c>
       <c r="M889" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -55302,7 +55302,7 @@
       </c>
       <c r="M930" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -55892,7 +55892,7 @@
       </c>
       <c r="M940" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -62146,7 +62146,7 @@
       </c>
       <c r="M1046" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -63385,7 +63385,7 @@
       </c>
       <c r="M1067" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -67220,7 +67220,7 @@
       </c>
       <c r="M1132" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -67810,7 +67810,7 @@
       </c>
       <c r="M1142" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -69521,7 +69521,7 @@
       </c>
       <c r="M1171" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -77899,7 +77899,7 @@
       </c>
       <c r="M1313" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
@@ -82383,7 +82383,7 @@
       </c>
       <c r="M1389" t="inlineStr">
         <is>
-          <t>Makoako</t>
+          <t>Mako</t>
         </is>
       </c>
     </row>
